--- a/biology/Histoire de la zoologie et de la botanique/Cass/Cass..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Cass/Cass..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Henri Gabriel de Cassini, né à Paris le 9 mai 1781 et mort du choléra le 16 avril 1832, est un magistrat et botaniste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Entré dans la carrière judiciaire, il devient membre puis vice-président du Tribunal de 1re instance de la Seine en 1811. Il épouse Catherine de Riencourt (1783-1861). Conseiller et président de la Cour Royale de Paris et conseiller à la Cour de cassation, il est fait pair de France en 1831.
 Il est élu Membre de l'Institut en 1827.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On lui doit des mémoires réunis sous le titre Opuscules phytologiques (1826), qui le firent admettre à l'Académie des sciences en 1827. Il a beaucoup travaillé sur la famille des Astéracées (ou Composées).
 Il a également écrit un Dictionnaire des Sciences naturelles.
